--- a/SMA - Software Measurement & Analysis/Assignment-05/SMA-HuyenLe-Ass05-ver0.1.xlsx
+++ b/SMA - Software Measurement & Analysis/Assignment-05/SMA-HuyenLe-Ass05-ver0.1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>WBS</t>
   </si>
@@ -253,13 +253,22 @@
   </si>
   <si>
     <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Comment of TamDo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Vẽ cái hình tổng quan WBS nha Huyên
+2. Mục 1.1, Planning? Gồm những gì?
+3. Tương tự 1.2, 1.6
+4. Các mục khác Huyen mô tả ra nha, vì Tam chưa hiểu nên không đánh giá được </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,10 +303,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,7 +400,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -423,7 +434,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,27 +609,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -627,8 +641,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -637,7 +654,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1.2</v>
       </c>
@@ -646,7 +663,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1.3</v>
       </c>
@@ -655,7 +672,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -664,7 +681,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -673,7 +690,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -682,7 +699,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>1.4</v>
       </c>
@@ -691,7 +708,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -700,7 +717,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -709,7 +726,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -718,7 +735,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -727,7 +744,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -736,7 +753,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -745,7 +762,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -754,7 +771,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -763,7 +780,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -772,7 +789,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -781,7 +798,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -790,7 +807,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -799,7 +816,7 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -808,7 +825,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -817,7 +834,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -826,7 +843,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -835,7 +852,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -844,7 +861,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -853,7 +870,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -862,7 +879,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -871,7 +888,7 @@
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -880,7 +897,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -889,7 +906,7 @@
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -898,7 +915,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -907,7 +924,7 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -916,7 +933,7 @@
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -925,7 +942,7 @@
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -934,7 +951,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -943,7 +960,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -952,7 +969,7 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -961,7 +978,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>1.5</v>
       </c>
@@ -970,7 +987,7 @@
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -979,7 +996,7 @@
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -988,7 +1005,7 @@
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -997,7 +1014,7 @@
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -1006,7 +1023,7 @@
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>1.6</v>
       </c>
@@ -1015,7 +1032,7 @@
       </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
@@ -1024,32 +1041,32 @@
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1061,24 +1078,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMA - Software Measurement & Analysis/Assignment-05/SMA-HuyenLe-Ass05-ver0.1.xlsx
+++ b/SMA - Software Measurement & Analysis/Assignment-05/SMA-HuyenLe-Ass05-ver0.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>WBS</t>
   </si>
@@ -253,15 +253,6 @@
   </si>
   <si>
     <t>1.6.1</t>
-  </si>
-  <si>
-    <t>Comment of TamDo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Vẽ cái hình tổng quan WBS nha Huyên
-2. Mục 1.1, Planning? Gồm những gì?
-3. Tương tự 1.2, 1.6
-4. Các mục khác Huyen mô tả ra nha, vì Tam chưa hiểu nên không đánh giá được </t>
   </si>
 </sst>
 </file>
@@ -629,11 +620,8 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="75">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -641,9 +629,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
